--- a/scrum_temp team 7.xlsx
+++ b/scrum_temp team 7.xlsx
@@ -4,26 +4,152 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Guide" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ProductBacklog" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="All tasks" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="sprint_planning_meetings" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sprint Reviews" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="sprint_backlog_sprint1" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="sprint_backlog_sprint2" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="sprint_backlog_sprint3" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="NOTES" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="ProductBacklog" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="All tasks" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="sprint_planning_meetings" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Sprint Reviews" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="sprint_backlog_sprint1" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="sprint_backlog_sprint2" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="sprint_backlog_sprint3" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjfjxSmtDd2r4tsNfnIUvZ4EGbsRw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgUbJxzSM7Vthkpbtkdlq6g4hL6yA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B2">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAXY59Azo
+Wafa Faquir    (2022-04-04 13:18:03)
+add edit and remove</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAXY59Azk
+Wafa Faquir    (2022-04-04 13:16:37)
+2 buttons : Best candidate + compare your answer with candidates answer</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh7ACUjUizcybdhwcOT1agozfr2PA=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="184">
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDL </t>
+  </si>
+  <si>
+    <t>Feature 1</t>
+  </si>
+  <si>
+    <t>1- Dashboard interface HTML ( Layout )</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 5th evening </t>
+  </si>
+  <si>
+    <t>· In the program, functionality needed is for admin to add, edit and remove candidates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- DB of LOGIN </t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 4th evening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Java servlt for Add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N &amp; W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 6th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Java servlt for edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Java servlt for remove </t>
+  </si>
+  <si>
+    <t>Feature 2</t>
+  </si>
+  <si>
+    <t>1- Answers interface HTML ( Layout )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t>· In the program, functionality needed is for candidates to answer the questions and edit and delete their answers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- DB of Answers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Java servlt for Add qst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V &amp; M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Java servlt for edit qst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Java servlt for remove qst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature 3 </t>
+  </si>
+  <si>
+    <t>1- User interface HTML ( Layout )</t>
+  </si>
+  <si>
+    <t>· In the program, functionality needed for an end user to answer the questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User interface HTML ( Layout ) after submitting </t>
+  </si>
+  <si>
+    <t>• In the program, functionality needed for an end user to answer the questions 
+o and see the candidate or candidates which best match to the answers of the end user, so that the end user can select whom to vote.</t>
+  </si>
   <si>
     <t>Product Backlog - Election machine</t>
   </si>
@@ -85,7 +211,7 @@
     <t>As a candidate I can answer the questions</t>
   </si>
   <si>
-    <t xml:space="preserve">TO DO </t>
+    <t>DRAFT</t>
   </si>
   <si>
     <t>All</t>
@@ -106,7 +232,7 @@
     <t>Vignesh</t>
   </si>
   <si>
-    <t>As a user, I am able to answer the questions. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to answer the questions. </t>
   </si>
   <si>
     <t>Coding the UI</t>
@@ -121,7 +247,7 @@
     <t xml:space="preserve">Vignesh </t>
   </si>
   <si>
-    <t>As a user, I am able to see the best candidate for me. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to see the best candidate for me. </t>
   </si>
   <si>
     <t xml:space="preserve">Compare the user's and candidates' answers </t>
@@ -136,7 +262,7 @@
     <t xml:space="preserve">WAFA </t>
   </si>
   <si>
-    <t>As a user, I am able to compare my answers to the candidates' answers. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to compare my answers to the candidates' answers. </t>
   </si>
   <si>
     <t xml:space="preserve">   Show the user's answers next to the candidates' answers </t>
@@ -145,7 +271,7 @@
     <t xml:space="preserve">X to check </t>
   </si>
   <si>
-    <t>As a user, I am able to see the information of the second candidate and the third etc. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to see the information of the second candidate and the third etc. </t>
   </si>
   <si>
     <t>Search the other candidates from the database</t>
@@ -154,13 +280,13 @@
     <t>Mona</t>
   </si>
   <si>
-    <t>As a user, I am able to see all the cadidates. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to see all the cadidates. </t>
   </si>
   <si>
     <t>Read candidates from the database</t>
   </si>
   <si>
-    <t>As a user, I am able to filter candidates by their party. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to filter candidates by their party. </t>
   </si>
   <si>
     <t>Read candidates and their parties from the database</t>
@@ -169,7 +295,7 @@
     <t>Create dropdown list</t>
   </si>
   <si>
-    <t>As an admin, I am able to add, read, edit and remove candidates. (DONE)</t>
+    <t xml:space="preserve">As an admin, I am able to add, read, edit and remove candidates. </t>
   </si>
   <si>
     <t>Methods for adding, reading, editing and removing the candidates</t>
@@ -178,13 +304,13 @@
     <t>Nazanin</t>
   </si>
   <si>
-    <t>As an admin, I am able to add, read, edit and remove election machine questions. (DONE)</t>
+    <t xml:space="preserve">As an admin, I am able to add, read, edit and remove election machine questions. </t>
   </si>
   <si>
     <t>Methods for adding, reading, editing and removing the questions</t>
   </si>
   <si>
-    <t>As an admin, I am able to log in. (DONE)</t>
+    <t xml:space="preserve">As an admin, I am able to log in. </t>
   </si>
   <si>
     <t>Create admin username and password</t>
@@ -205,7 +331,7 @@
     <t>Create a database connection and get the admin username and password from there</t>
   </si>
   <si>
-    <t>Finishing the project (DONE)</t>
+    <t xml:space="preserve">Finishing the project </t>
   </si>
   <si>
     <t>Add autoincrement to MySQL</t>
@@ -271,33 +397,39 @@
     <t>Wafa Faquir</t>
   </si>
   <si>
+    <t>Physically</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>If physically present mark X</t>
+  </si>
+  <si>
+    <t>What needs to be done: The following features are done: The user can answer to the questions, see the information of all of the candidates and filter the candidates by their party. Also the admin can log in to the system and read,edit, remove and add election machine candidates.</t>
+  </si>
+  <si>
+    <t>How will it be done: Each member of the team will pick a User Story and implement it.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physically </t>
+  </si>
+  <si>
+    <t>What needs to be done: The following features are done: The user can answer questions. The admin can add, read, edit and remove the election machine questions. The user can see the best and the second best etc candidates for them. The user can also compare their answers to the candidates' answers.</t>
+  </si>
+  <si>
+    <t>How will it be done: The tasks are divided between the members of the group and implemented. Answering to questions should be done first.</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Online</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>If physically present mark X</t>
-  </si>
-  <si>
-    <t>What needs to be done: The following features are done: The user can answer to the questions, see the information of all of the candidates and filter the candidates by their party. Also the admin can log in to the system and read,edit, remove and add election machine candidates.</t>
-  </si>
-  <si>
-    <t>How will it be done: Each member of the team will pick a User Story and implement it.</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>What needs to be done: The following features are done: The user can answer questions. The admin can add, read, edit and remove the election machine questions. The user can see the best and the second best etc candidates for them. The user can also compare their answers to the candidates' answers.</t>
-  </si>
-  <si>
-    <t>How will it be done: The tasks are divided between the members of the group and implemented. Answering to questions should be done first.</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>What needs to be done: The goal of the sprint is to check that everything in the project works fine and the design looks same everywhere and the code is commented well. In addition, MySQL has autoincrement in the id fields.</t>
   </si>
   <si>
@@ -421,6 +553,9 @@
     <t>As a user, I am able to answer the questions</t>
   </si>
   <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
     <t>Save the answers for comparing</t>
   </si>
   <si>
@@ -437,6 +572,9 @@
   </si>
   <si>
     <t>Not associated with a user story</t>
+  </si>
+  <si>
+    <t>Coding the layout-Home page</t>
   </si>
   <si>
     <t>As an admin, I am able to log in</t>
@@ -476,9 +614,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -511,11 +666,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -586,13 +736,18 @@
       <name val="Century Gothic"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,8 +756,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
     <fill>
@@ -613,8 +792,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7CAAC"/>
-        <bgColor rgb="FFF7CAAC"/>
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -633,6 +818,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE4"/>
         <bgColor rgb="FFD6DCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -1156,292 +1347,347 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="8" fillId="7" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="8" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="7" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="31" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="31" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="32" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="33" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="30" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="37" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="37" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
+    <xf borderId="38" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="40" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="41" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="3" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="11" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="42" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="40" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="41" fillId="7" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="7" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="40" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="43" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="41" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="11" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="44" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="41" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="50" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="57" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="53" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="54" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="55" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="56" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="57" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2678,6 +2924,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2999,10 +3249,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -3012,6 +3258,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4278,6 +4528,185 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.56"/>
+    <col customWidth="1" min="2" max="2" width="37.11"/>
+    <col customWidth="1" min="4" max="4" width="16.56"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="20">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="1"/>
+    <row r="24" ht="25.5" customHeight="1"/>
+    <row r="25" ht="27.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A15:A19"/>
+  </mergeCells>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FF5B0F00"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -4287,7 +4716,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="62.67"/>
-    <col customWidth="1" min="2" max="2" width="16.89"/>
+    <col customWidth="1" hidden="1" min="2" max="2" width="16.89"/>
     <col customWidth="1" min="3" max="3" width="15.78"/>
     <col customWidth="1" min="4" max="4" width="2.78"/>
     <col customWidth="1" min="5" max="5" width="6.78"/>
@@ -4296,211 +4725,211 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="18">
         <v>2.0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="19">
         <v>1.0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="20">
         <v>1.0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>3.0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="20">
         <v>5.0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="18">
         <v>4.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="21">
         <v>1.0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="18">
         <v>4.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="18">
         <v>4.0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C6" s="24">
         <v>4.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="18">
         <v>2.0</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="C9" s="23">
         <v>1.0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="18">
         <v>3.0</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C11" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="18">
         <v>3.0</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="C12" s="27">
         <v>2.0</v>
       </c>
-      <c r="C9" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="18">
         <v>2.0</v>
       </c>
-      <c r="C10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="C13" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="29">
         <v>2.0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="30">
         <v>5.0</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4517,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4534,466 +4963,466 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>23</v>
+      <c r="A2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="24"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="27"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="29"/>
+      <c r="A5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="24"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="24"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="29"/>
+      <c r="A9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="24"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="24"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="24"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="29"/>
+      <c r="A14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="24"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="24"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="24"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="27"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="24"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="47"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="24"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="24"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="24"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="27"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="24"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="47"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="40"/>
+      <c r="B34" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="44"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="39"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="39"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="39"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="40"/>
+      <c r="B42" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="44"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="39"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="37"/>
+      <c r="B48" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="39"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="37"/>
+      <c r="B50" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="37"/>
+      <c r="B51" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="40"/>
+      <c r="B52" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="C53" s="44"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="37"/>
+      <c r="B54" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="39"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="40"/>
+      <c r="B55" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="42"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="24"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="24"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="29"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="24"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="24"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="24"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="24"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="24"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="24"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="24"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="24"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="27"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="29"/>
+      <c r="C56" s="44"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="24"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22"/>
-      <c r="B58" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="27"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A52"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A43:A52"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C42"/>
     <mergeCell ref="C43:C52"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5002,7 +5431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFE69138"/>
@@ -5022,253 +5451,253 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>76</v>
+      <c r="A1" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>81</v>
+      <c r="A2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>84</v>
+      <c r="A3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43">
+      <c r="A4" s="60">
         <v>44649.0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="A5" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>81</v>
+      <c r="A9" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>83</v>
+      <c r="A10" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="43">
+      <c r="A11" s="60">
         <v>44655.0</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="53"/>
+      <c r="A12" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="53"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="A14" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="A16" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="58">
+      <c r="A18" s="75">
         <v>44658.0</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="53"/>
+      <c r="A19" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="71"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="52"/>
+      <c r="A21" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -6262,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFE69138"/>
@@ -6282,278 +6711,272 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="E3" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="E4" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="F4" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="87"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="E5" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F5" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" ht="51.75" customHeight="1">
+      <c r="A6" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="F6" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="E7" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="E8" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="F8" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="E9" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="E3" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="F10" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="E11" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="E4" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="70"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="E5" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" ht="51.75" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="E7" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="E8" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="70"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="E9" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="E11" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="70"/>
+      <c r="F11" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="E12" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="70"/>
+      <c r="E12" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="81" t="s">
+      <c r="A13" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>98</v>
+      <c r="A14" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="67"/>
+      <c r="A15" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="84"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="70"/>
+      <c r="A16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="87"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="70"/>
+      <c r="A17" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="87"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="70"/>
+      <c r="A18" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="87"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="70"/>
+      <c r="A19" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="87"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="87"/>
+      <c r="A20" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="104"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -7546,7 +7969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
@@ -7569,730 +7992,786 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="A2" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="98">
+      <c r="A4" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="115">
         <v>2.0</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="98">
+      <c r="A5" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="115">
         <v>2.0</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="115">
         <v>2.0</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="A6" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="A7" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="A8" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="115"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="A9" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
+      <c r="A11" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
+      <c r="A12" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="A13" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="A14" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="A15" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="A16" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="A17" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
+      <c r="A18" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="116"/>
+      <c r="F18" s="115">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
+      <c r="A19" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="125"/>
+      <c r="C19" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
+      <c r="A20" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="115">
+        <v>2.0</v>
+      </c>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="116"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="102" t="s">
+      <c r="B30" s="127"/>
+      <c r="C30" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
+      <c r="A32" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="119"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
+      <c r="A33" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109">
+      <c r="A34" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130">
         <f>SUM(E4:E33)+0.5</f>
         <v>4.5</v>
       </c>
-      <c r="F34" s="109">
+      <c r="F34" s="130">
         <v>4.0</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="130">
         <v>6.0</v>
       </c>
-      <c r="H34" s="109">
+      <c r="H34" s="130">
         <f>SUM(H6:H33)+0.16*2</f>
-        <v>0.32</v>
-      </c>
-      <c r="I34" s="109">
+        <v>1.32</v>
+      </c>
+      <c r="I34" s="130">
         <f>SUM(I6:I33)+0.16*2+0.5</f>
-        <v>0.82</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9273,7 +9752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
@@ -9297,673 +9776,685 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="A2" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="117"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="107">
+      <c r="A3" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="125">
         <v>3.0</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="117"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="A4" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="A5" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="A6" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="A7" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="A8" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="107">
+      <c r="A9" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="125">
         <v>2.0</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="C9" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="112"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
+      <c r="A10" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="107">
+      <c r="A11" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="125">
         <v>4.0</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
+      <c r="C11" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
+      <c r="A12" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="A13" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="A14" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="A15" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="A16" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="107">
+      <c r="A17" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="125">
         <v>4.0</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="C17" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
+      <c r="A18" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+    </row>
+    <row r="20" ht="42.0" customHeight="1">
+      <c r="A20" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="125">
+        <v>4.0</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+    </row>
+    <row r="21" ht="39.75" customHeight="1">
+      <c r="A21" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+    </row>
+    <row r="22" ht="27.0" customHeight="1">
+      <c r="A22" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-    </row>
-    <row r="20" ht="42.0" customHeight="1">
-      <c r="A20" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="107">
+      <c r="B22" s="125">
         <v>4.0</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-    </row>
-    <row r="21" ht="39.75" customHeight="1">
-      <c r="A21" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-    </row>
-    <row r="22" ht="27.0" customHeight="1">
-      <c r="A22" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="107">
-        <v>4.0</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
+      <c r="C22" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
+      <c r="A23" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
+      <c r="A24" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
+      <c r="A25" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109">
+      <c r="A26" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130">
         <f>SUM(E5:E25)+0.16</f>
         <v>0.16</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="130">
         <f>SUM(F3:F25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="130">
         <f>SUM(G3:G25)+0.16*14</f>
         <v>2.24</v>
       </c>
-      <c r="H26" s="109">
+      <c r="H26" s="130">
         <f>SUM(H3:H25)+0.16</f>
         <v>0.16</v>
       </c>
-      <c r="I26" s="109">
+      <c r="I26" s="130">
         <f>SUM(I3:I25) + 0.5 + 0.16</f>
         <v>0.66</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -10949,7 +11440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10968,625 +11459,631 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="124"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="A2" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="145"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="107">
+      <c r="A3" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="125">
         <v>2.0</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="147"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="A4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="A5" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="A6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="A7" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="A8" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="A9" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
+      <c r="A10" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
+      <c r="A11" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
+      <c r="A12" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="107">
+      <c r="A13" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="125">
         <v>2.0</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="C13" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="A14" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="A15" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="107">
+      <c r="A16" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="125">
         <v>2.0</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="C16" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="A17" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
+      <c r="A18" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109">
+      <c r="A19" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130">
         <f>SUM(E4:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="130">
         <f t="shared" ref="F19:I19" si="1">SUM(F3:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>

--- a/scrum_temp team 7.xlsx
+++ b/scrum_temp team 7.xlsx
@@ -4,26 +4,152 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Guide" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ProductBacklog" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="All tasks" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="sprint_planning_meetings" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sprint Reviews" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="sprint_backlog_sprint1" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="sprint_backlog_sprint2" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="sprint_backlog_sprint3" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="NOTES" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="ProductBacklog" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="All tasks" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="sprint_planning_meetings" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Sprint Reviews" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="sprint_backlog_sprint1" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="sprint_backlog_sprint2" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="sprint_backlog_sprint3" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjfjxSmtDd2r4tsNfnIUvZ4EGbsRw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgUbJxzSM7Vthkpbtkdlq6g4hL6yA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B2">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAXY59Azo
+Wafa Faquir    (2022-04-04 13:18:03)
+add edit and remove</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAXY59Azk
+Wafa Faquir    (2022-04-04 13:16:37)
+2 buttons : Best candidate + compare your answer with candidates answer</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh7ACUjUizcybdhwcOT1agozfr2PA=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="184">
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDL </t>
+  </si>
+  <si>
+    <t>Feature 1</t>
+  </si>
+  <si>
+    <t>1- Dashboard interface HTML ( Layout )</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 5th evening </t>
+  </si>
+  <si>
+    <t>· In the program, functionality needed is for admin to add, edit and remove candidates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- DB of LOGIN </t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 4th evening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Java servlt for Add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N &amp; W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 6th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Java servlt for edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Java servlt for remove </t>
+  </si>
+  <si>
+    <t>Feature 2</t>
+  </si>
+  <si>
+    <t>1- Answers interface HTML ( Layout )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t>· In the program, functionality needed is for candidates to answer the questions and edit and delete their answers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- DB of Answers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Java servlt for Add qst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V &amp; M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Java servlt for edit qst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Java servlt for remove qst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature 3 </t>
+  </si>
+  <si>
+    <t>1- User interface HTML ( Layout )</t>
+  </si>
+  <si>
+    <t>· In the program, functionality needed for an end user to answer the questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User interface HTML ( Layout ) after submitting </t>
+  </si>
+  <si>
+    <t>• In the program, functionality needed for an end user to answer the questions 
+o and see the candidate or candidates which best match to the answers of the end user, so that the end user can select whom to vote.</t>
+  </si>
   <si>
     <t>Product Backlog - Election machine</t>
   </si>
@@ -85,7 +211,7 @@
     <t>As a candidate I can answer the questions</t>
   </si>
   <si>
-    <t xml:space="preserve">TO DO </t>
+    <t>DRAFT</t>
   </si>
   <si>
     <t>All</t>
@@ -106,7 +232,7 @@
     <t>Vignesh</t>
   </si>
   <si>
-    <t>As a user, I am able to answer the questions. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to answer the questions. </t>
   </si>
   <si>
     <t>Coding the UI</t>
@@ -121,7 +247,7 @@
     <t xml:space="preserve">Vignesh </t>
   </si>
   <si>
-    <t>As a user, I am able to see the best candidate for me. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to see the best candidate for me. </t>
   </si>
   <si>
     <t xml:space="preserve">Compare the user's and candidates' answers </t>
@@ -136,7 +262,7 @@
     <t xml:space="preserve">WAFA </t>
   </si>
   <si>
-    <t>As a user, I am able to compare my answers to the candidates' answers. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to compare my answers to the candidates' answers. </t>
   </si>
   <si>
     <t xml:space="preserve">   Show the user's answers next to the candidates' answers </t>
@@ -145,7 +271,7 @@
     <t xml:space="preserve">X to check </t>
   </si>
   <si>
-    <t>As a user, I am able to see the information of the second candidate and the third etc. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to see the information of the second candidate and the third etc. </t>
   </si>
   <si>
     <t>Search the other candidates from the database</t>
@@ -154,13 +280,13 @@
     <t>Mona</t>
   </si>
   <si>
-    <t>As a user, I am able to see all the cadidates. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to see all the cadidates. </t>
   </si>
   <si>
     <t>Read candidates from the database</t>
   </si>
   <si>
-    <t>As a user, I am able to filter candidates by their party. (DONE)</t>
+    <t xml:space="preserve">As a user, I am able to filter candidates by their party. </t>
   </si>
   <si>
     <t>Read candidates and their parties from the database</t>
@@ -169,7 +295,7 @@
     <t>Create dropdown list</t>
   </si>
   <si>
-    <t>As an admin, I am able to add, read, edit and remove candidates. (DONE)</t>
+    <t xml:space="preserve">As an admin, I am able to add, read, edit and remove candidates. </t>
   </si>
   <si>
     <t>Methods for adding, reading, editing and removing the candidates</t>
@@ -178,13 +304,13 @@
     <t>Nazanin</t>
   </si>
   <si>
-    <t>As an admin, I am able to add, read, edit and remove election machine questions. (DONE)</t>
+    <t xml:space="preserve">As an admin, I am able to add, read, edit and remove election machine questions. </t>
   </si>
   <si>
     <t>Methods for adding, reading, editing and removing the questions</t>
   </si>
   <si>
-    <t>As an admin, I am able to log in. (DONE)</t>
+    <t xml:space="preserve">As an admin, I am able to log in. </t>
   </si>
   <si>
     <t>Create admin username and password</t>
@@ -205,7 +331,7 @@
     <t>Create a database connection and get the admin username and password from there</t>
   </si>
   <si>
-    <t>Finishing the project (DONE)</t>
+    <t xml:space="preserve">Finishing the project </t>
   </si>
   <si>
     <t>Add autoincrement to MySQL</t>
@@ -271,33 +397,39 @@
     <t>Wafa Faquir</t>
   </si>
   <si>
+    <t>Physically</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>If physically present mark X</t>
+  </si>
+  <si>
+    <t>What needs to be done: The following features are done: The user can answer to the questions, see the information of all of the candidates and filter the candidates by their party. Also the admin can log in to the system and read,edit, remove and add election machine candidates.</t>
+  </si>
+  <si>
+    <t>How will it be done: Each member of the team will pick a User Story and implement it.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physically </t>
+  </si>
+  <si>
+    <t>What needs to be done: The following features are done: The user can answer questions. The admin can add, read, edit and remove the election machine questions. The user can see the best and the second best etc candidates for them. The user can also compare their answers to the candidates' answers.</t>
+  </si>
+  <si>
+    <t>How will it be done: The tasks are divided between the members of the group and implemented. Answering to questions should be done first.</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Online</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>If physically present mark X</t>
-  </si>
-  <si>
-    <t>What needs to be done: The following features are done: The user can answer to the questions, see the information of all of the candidates and filter the candidates by their party. Also the admin can log in to the system and read,edit, remove and add election machine candidates.</t>
-  </si>
-  <si>
-    <t>How will it be done: Each member of the team will pick a User Story and implement it.</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>What needs to be done: The following features are done: The user can answer questions. The admin can add, read, edit and remove the election machine questions. The user can see the best and the second best etc candidates for them. The user can also compare their answers to the candidates' answers.</t>
-  </si>
-  <si>
-    <t>How will it be done: The tasks are divided between the members of the group and implemented. Answering to questions should be done first.</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>What needs to be done: The goal of the sprint is to check that everything in the project works fine and the design looks same everywhere and the code is commented well. In addition, MySQL has autoincrement in the id fields.</t>
   </si>
   <si>
@@ -421,6 +553,9 @@
     <t>As a user, I am able to answer the questions</t>
   </si>
   <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
     <t>Save the answers for comparing</t>
   </si>
   <si>
@@ -437,6 +572,9 @@
   </si>
   <si>
     <t>Not associated with a user story</t>
+  </si>
+  <si>
+    <t>Coding the layout-Home page</t>
   </si>
   <si>
     <t>As an admin, I am able to log in</t>
@@ -476,9 +614,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -511,11 +666,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -586,13 +736,18 @@
       <name val="Century Gothic"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,8 +756,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
     <fill>
@@ -613,8 +792,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7CAAC"/>
-        <bgColor rgb="FFF7CAAC"/>
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -633,6 +818,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE4"/>
         <bgColor rgb="FFD6DCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -1156,292 +1347,347 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="8" fillId="7" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="8" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="7" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="31" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="31" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="32" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="33" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="30" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="37" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="37" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
+    <xf borderId="38" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="40" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="41" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="3" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="11" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="42" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="40" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="41" fillId="7" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="7" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="40" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="43" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="41" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="11" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="44" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="41" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="40" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="50" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="57" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="53" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="54" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="55" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="56" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="57" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2678,6 +2924,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2999,10 +3249,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -3012,6 +3258,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4278,6 +4528,185 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.56"/>
+    <col customWidth="1" min="2" max="2" width="37.11"/>
+    <col customWidth="1" min="4" max="4" width="16.56"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="20">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="1"/>
+    <row r="24" ht="25.5" customHeight="1"/>
+    <row r="25" ht="27.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A15:A19"/>
+  </mergeCells>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FF5B0F00"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -4287,7 +4716,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="62.67"/>
-    <col customWidth="1" min="2" max="2" width="16.89"/>
+    <col customWidth="1" hidden="1" min="2" max="2" width="16.89"/>
     <col customWidth="1" min="3" max="3" width="15.78"/>
     <col customWidth="1" min="4" max="4" width="2.78"/>
     <col customWidth="1" min="5" max="5" width="6.78"/>
@@ -4296,211 +4725,211 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="18">
         <v>2.0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="19">
         <v>1.0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="20">
         <v>1.0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>3.0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="20">
         <v>5.0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="18">
         <v>4.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="21">
         <v>1.0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="18">
         <v>4.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="18">
         <v>4.0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C6" s="24">
         <v>4.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="18">
         <v>2.0</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="C9" s="23">
         <v>1.0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="18">
         <v>3.0</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C11" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="18">
         <v>3.0</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="C12" s="27">
         <v>2.0</v>
       </c>
-      <c r="C9" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="18">
         <v>2.0</v>
       </c>
-      <c r="C10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="C13" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="29">
         <v>2.0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="30">
         <v>5.0</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4517,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4534,466 +4963,466 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>23</v>
+      <c r="A2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="24"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="27"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="29"/>
+      <c r="A5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="24"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="24"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="29"/>
+      <c r="A9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="24"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="24"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="24"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="29"/>
+      <c r="A14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="24"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="24"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="24"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="27"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="24"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="47"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="24"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="24"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="24"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="27"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="24"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="47"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="40"/>
+      <c r="B34" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="44"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="39"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="39"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="39"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="40"/>
+      <c r="B42" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="44"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="39"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="37"/>
+      <c r="B48" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="39"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="37"/>
+      <c r="B50" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="37"/>
+      <c r="B51" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="40"/>
+      <c r="B52" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="C53" s="44"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="37"/>
+      <c r="B54" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="39"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="40"/>
+      <c r="B55" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="42"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="24"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="24"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="29"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="24"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="24"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="24"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="24"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="24"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="24"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="24"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="24"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="27"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="29"/>
+      <c r="C56" s="44"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="24"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22"/>
-      <c r="B58" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="27"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A52"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A43:A52"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C42"/>
     <mergeCell ref="C43:C52"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5002,7 +5431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFE69138"/>
@@ -5022,253 +5451,253 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>76</v>
+      <c r="A1" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>81</v>
+      <c r="A2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>84</v>
+      <c r="A3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43">
+      <c r="A4" s="60">
         <v>44649.0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="A5" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>81</v>
+      <c r="A9" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>83</v>
+      <c r="A10" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="43">
+      <c r="A11" s="60">
         <v>44655.0</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="53"/>
+      <c r="A12" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="53"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="A14" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="A16" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="58">
+      <c r="A18" s="75">
         <v>44658.0</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="53"/>
+      <c r="A19" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="71"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="52"/>
+      <c r="A21" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -6262,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFE69138"/>
@@ -6282,278 +6711,272 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="E3" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="E4" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="F4" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="87"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="E5" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F5" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" ht="51.75" customHeight="1">
+      <c r="A6" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="F6" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="E7" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="E8" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="F8" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="E9" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="E3" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="F10" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="E11" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="E4" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="70"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="E5" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" ht="51.75" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="E7" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="E8" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="70"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="E9" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="E11" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="70"/>
+      <c r="F11" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="E12" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="70"/>
+      <c r="E12" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="81" t="s">
+      <c r="A13" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>98</v>
+      <c r="A14" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="67"/>
+      <c r="A15" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="84"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="70"/>
+      <c r="A16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="87"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="70"/>
+      <c r="A17" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="87"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="70"/>
+      <c r="A18" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="87"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="70"/>
+      <c r="A19" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="87"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="87"/>
+      <c r="A20" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="104"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -7546,7 +7969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
@@ -7569,730 +7992,786 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="A2" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="98">
+      <c r="A4" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="115">
         <v>2.0</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="98">
+      <c r="A5" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="115">
         <v>2.0</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="115">
         <v>2.0</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="A6" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="A7" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="A8" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="115"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="A9" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
+      <c r="A11" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
+      <c r="A12" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="A13" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="A14" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="A15" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="A16" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="A17" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
+      <c r="A18" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="116"/>
+      <c r="F18" s="115">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
+      <c r="A19" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="125"/>
+      <c r="C19" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
+      <c r="A20" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="115">
+        <v>2.0</v>
+      </c>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="116"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="102" t="s">
+      <c r="B30" s="127"/>
+      <c r="C30" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
+      <c r="A32" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="119"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
+      <c r="A33" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109">
+      <c r="A34" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130">
         <f>SUM(E4:E33)+0.5</f>
         <v>4.5</v>
       </c>
-      <c r="F34" s="109">
+      <c r="F34" s="130">
         <v>4.0</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="130">
         <v>6.0</v>
       </c>
-      <c r="H34" s="109">
+      <c r="H34" s="130">
         <f>SUM(H6:H33)+0.16*2</f>
-        <v>0.32</v>
-      </c>
-      <c r="I34" s="109">
+        <v>1.32</v>
+      </c>
+      <c r="I34" s="130">
         <f>SUM(I6:I33)+0.16*2+0.5</f>
-        <v>0.82</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9273,7 +9752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
@@ -9297,673 +9776,719 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="A2" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="117"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="107">
+      <c r="A3" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="125">
         <v>3.0</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="117"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="A4" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="A5" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="137"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="A6" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="A7" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="A8" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="137"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="107">
+      <c r="A9" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="125">
         <v>2.0</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="C9" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="112"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
+      <c r="A10" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="107">
+      <c r="A11" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="125">
         <v>4.0</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
+      <c r="C11" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
+      <c r="A12" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="A13" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="A14" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="A15" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="A16" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="137"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="107">
+      <c r="A17" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="125">
         <v>4.0</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="C17" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
+      <c r="A18" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="119"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+    </row>
+    <row r="20" ht="42.0" customHeight="1">
+      <c r="A20" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="125">
+        <v>4.0</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+    </row>
+    <row r="21" ht="39.75" customHeight="1">
+      <c r="A21" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+    </row>
+    <row r="22" ht="27.0" customHeight="1">
+      <c r="A22" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-    </row>
-    <row r="20" ht="42.0" customHeight="1">
-      <c r="A20" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="107">
+      <c r="B22" s="125">
         <v>4.0</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-    </row>
-    <row r="21" ht="39.75" customHeight="1">
-      <c r="A21" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-    </row>
-    <row r="22" ht="27.0" customHeight="1">
-      <c r="A22" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="107">
-        <v>4.0</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
+      <c r="C22" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
+      <c r="A23" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
+      <c r="A24" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="119"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
+      <c r="A25" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="119"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="137"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109">
+      <c r="A26" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130">
         <f>SUM(E5:E25)+0.16</f>
         <v>0.16</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="130">
         <f>SUM(F3:F25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="130">
         <f>SUM(G3:G25)+0.16*14</f>
         <v>2.24</v>
       </c>
-      <c r="H26" s="109">
+      <c r="H26" s="130">
         <f>SUM(H3:H25)+0.16</f>
         <v>0.16</v>
       </c>
-      <c r="I26" s="109">
+      <c r="I26" s="130">
         <f>SUM(I3:I25) + 0.5 + 0.16</f>
         <v>0.66</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -10949,7 +11474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10968,625 +11493,631 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="124"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="A2" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="145"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="107">
+      <c r="A3" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="125">
         <v>2.0</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="147"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="A4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="A5" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="A6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="A7" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="A8" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="A9" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
+      <c r="A10" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
+      <c r="A11" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
+      <c r="A12" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="107">
+      <c r="A13" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="125">
         <v>2.0</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="C13" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="A14" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="A15" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="107">
+      <c r="A16" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="125">
         <v>2.0</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="C16" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="A17" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
+      <c r="A18" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109">
+      <c r="A19" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130">
         <f>SUM(E4:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="130">
         <f t="shared" ref="F19:I19" si="1">SUM(F3:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>

--- a/scrum_temp team 7.xlsx
+++ b/scrum_temp team 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshkandi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84528AFD-92EA-134D-9003-6C017D9C249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B69419E-1C63-2342-9D03-26A613A7881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="181">
   <si>
     <t>Responsible</t>
   </si>
@@ -211,6 +211,9 @@
     <t>As a user, I am able to filter candidates by their party.</t>
   </si>
   <si>
+    <t>As an admin, I am able to log in.</t>
+  </si>
+  <si>
     <t>Finishing the project</t>
   </si>
   <si>
@@ -602,6 +605,9 @@
   </si>
   <si>
     <t>Method for removing questions from database</t>
+  </si>
+  <si>
+    <t>Adding more test data</t>
   </si>
   <si>
     <t>Sprint Backlog : Sprint 3</t>
@@ -617,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -746,13 +752,18 @@
       <name val="Century Gothic"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,6 +808,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -821,6 +838,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF333F4F"/>
         <bgColor rgb="FF333F4F"/>
       </patternFill>
@@ -831,8 +854,14 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1393,6 +1422,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1481,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1511,10 +1581,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,20 +1637,20 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,7 +1704,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,8 +1731,8 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,32 +1752,44 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,16 +1805,32 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1788,7 +1888,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1796,23 +1896,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2193,10 +2293,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="2324100"/>
     <xdr:sp macro="" textlink="">
@@ -2212,8 +2312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="238125"/>
-          <a:ext cx="5791200" cy="2324100"/>
+          <a:off x="2455163" y="2622713"/>
+          <a:ext cx="5781675" cy="2314575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,10 +2951,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="2324100"/>
     <xdr:sp macro="" textlink="">
@@ -2870,8 +2970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5594350" y="2841625"/>
-          <a:ext cx="5791200" cy="2324100"/>
+          <a:off x="2455163" y="2622713"/>
+          <a:ext cx="5781675" cy="2314575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3368,7 +3468,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:C9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:C14">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User  Story"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Story Point(s)"/>
@@ -3614,9 +3714,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4638,9 +4736,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4650,8 +4746,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="111"/>
-      <c r="B1" s="111"/>
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4770,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4688,32 +4784,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="111"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="125" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="111"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
     </row>
     <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="111"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7" s="7"/>
@@ -4733,7 +4829,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4747,32 +4843,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="111"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="125" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
-      <c r="A11" s="111"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
     </row>
     <row r="12" spans="1:4" ht="16">
-      <c r="A12" s="111"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
     </row>
     <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
@@ -4789,7 +4885,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="126" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4803,16 +4899,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="111"/>
+      <c r="A16" s="123"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A17" s="111"/>
+      <c r="A17" s="123"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
-      <c r="A18" s="111"/>
+      <c r="A18" s="123"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="123"/>
     </row>
     <row r="20" spans="1:1" ht="16">
       <c r="A20" s="5"/>
@@ -4838,37 +4934,35 @@
   <sheetPr>
     <tabColor rgb="FF5B0F00"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="72.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="2.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1">
+      <c r="F1" s="130"/>
+      <c r="G1" s="131"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -4951,46 +5045,116 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>44</v>
+      <c r="A7" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
-        <v>4</v>
+      <c r="C7" s="19">
+        <v>3</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>48</v>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
-      </c>
-      <c r="C8" s="20">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="21">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
-        <v>5</v>
+      <c r="C9" s="17">
+        <v>1</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="23">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5012,7 +5176,7 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5022,480 +5186,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="138" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="136"/>
+      <c r="B3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="133"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="137"/>
+      <c r="B4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="134"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="136"/>
+      <c r="B6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="133"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="136"/>
+      <c r="B7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="133"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="137"/>
+      <c r="B8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="134"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="133"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="136"/>
+      <c r="B12" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="137"/>
+      <c r="B13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="134"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="133"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="133"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="133"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="137"/>
+      <c r="B18" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="134"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="136"/>
+      <c r="B20" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="133"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="137"/>
+      <c r="B21" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="134"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="136"/>
+      <c r="B23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="133"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="137"/>
+      <c r="B24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="134"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="136"/>
+      <c r="B26" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="133"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="136"/>
+      <c r="B27" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="133"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="143"/>
+      <c r="B28" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="134"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="136"/>
+      <c r="B30" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="133"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="137"/>
+      <c r="B31" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="134"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="136"/>
+      <c r="B33" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="133"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="137"/>
+      <c r="B34" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="134"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="140" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="136"/>
+      <c r="B36" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="133"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="136"/>
+      <c r="B37" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="133"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="136"/>
+      <c r="B38" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="133"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="136"/>
+      <c r="B39" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="133"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="136"/>
+      <c r="B40" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="133"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="136"/>
+      <c r="B41" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="133"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="137"/>
+      <c r="B42" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="134"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="142"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="136"/>
+      <c r="B44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="136"/>
+      <c r="B45" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="136"/>
+      <c r="B46" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="136"/>
+      <c r="B47" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="136"/>
+      <c r="B48" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="136"/>
+      <c r="B49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="136"/>
+      <c r="B50" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="136"/>
+      <c r="B51" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="137"/>
+      <c r="B52" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="136"/>
+      <c r="B54" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="133"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="137"/>
+      <c r="B55" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="134"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="126" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="121"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="122"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="29" t="s">
+      <c r="C56" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="121"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="124"/>
-      <c r="B7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="121"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="125"/>
-      <c r="B8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="122"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="121"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="124"/>
-      <c r="B11" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="121"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="121"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="122"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="124"/>
-      <c r="B15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="121"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="124"/>
-      <c r="B16" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="121"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="124"/>
-      <c r="B17" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="121"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="122"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="124"/>
-      <c r="B20" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="121"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="122"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="124"/>
-      <c r="B23" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="121"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="122"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="124"/>
-      <c r="B26" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="121"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="124"/>
-      <c r="B27" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="121"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="122"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="124"/>
-      <c r="B30" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="121"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="122"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="124"/>
-      <c r="B33" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="121"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="122"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="124"/>
-      <c r="B36" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="121"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="121"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="121"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="124"/>
-      <c r="B39" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="121"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="124"/>
-      <c r="B40" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="121"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="121"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="125"/>
-      <c r="B42" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="122"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="130"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="124"/>
-      <c r="B45" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="124"/>
-      <c r="B46" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="124"/>
-      <c r="B47" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="124"/>
-      <c r="B48" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="124"/>
-      <c r="B49" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="124"/>
-      <c r="B50" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="124"/>
-      <c r="B51" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="125"/>
-      <c r="B52" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="124"/>
-      <c r="B54" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="121"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="125"/>
-      <c r="B55" s="30" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="136"/>
+      <c r="B57" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="122"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="124"/>
-      <c r="B57" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="121"/>
+      <c r="C57" s="133"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="124"/>
-      <c r="B58" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="122"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5551,261 +5715,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>103</v>
       </c>
+      <c r="B1" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>108</v>
       </c>
+      <c r="E2" s="41" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="A3" s="42" t="s">
         <v>110</v>
       </c>
+      <c r="B3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="43">
+      <c r="A4" s="45">
         <v>44649</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="132" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134"/>
+      <c r="A5" s="144" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="135"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="147"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
+      <c r="A7" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="150"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>108</v>
       </c>
+      <c r="E9" s="41" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>58</v>
+      <c r="A10" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="43">
+      <c r="A11" s="45">
         <v>44655</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46"/>
+      <c r="A12" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="139" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="A14" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="39" t="s">
+      <c r="A16" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="E16" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="A17" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="50">
+      <c r="A18" s="52">
         <v>44658</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="47"/>
+      <c r="A19" s="144" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="137"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="139" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="45"/>
+      <c r="A21" s="151" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
@@ -6817,276 +6981,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>122</v>
+      <c r="E1" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="56" t="s">
+      <c r="C2" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="58" t="s">
         <v>126</v>
       </c>
+      <c r="G2" s="58" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="E3" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="E4" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="E5" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A6" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="E7" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="E8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="E9" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E11" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E12" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="E3" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="E4" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="65"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="E5" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A6" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="E7" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="E8" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="E9" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E11" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E12" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="65"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="59"/>
+      <c r="A15" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="65"/>
+      <c r="A16" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="65"/>
+      <c r="B17" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="65"/>
+      <c r="A19" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="79"/>
+      <c r="B20" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="81"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
@@ -8084,13 +8248,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="57.5" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
@@ -8101,740 +8263,850 @@
     <col min="12" max="26" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="142"/>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="154"/>
     </row>
     <row r="2" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="F2" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="H2" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="I2" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
+      <c r="J2" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
     </row>
     <row r="3" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="143" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
+      <c r="F3" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="155" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="86">
+      <c r="A4" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="88">
         <v>2</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="86">
+      <c r="A5" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="88">
         <v>2</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="88">
         <v>2</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="111"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="123"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="92" t="s">
-        <v>46</v>
+      <c r="A6" s="94" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="95"/>
-      <c r="C6" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
+      <c r="C6" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="86">
+      <c r="A7" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="88">
         <v>3</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="86">
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="89"/>
+      <c r="F13" s="88">
         <v>4</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86">
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="88">
         <v>3</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H14" s="88">
         <v>2</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I14" s="88">
         <v>5</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86">
+      <c r="J14" s="123"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="88">
         <v>2</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H15" s="88">
         <v>1</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I15" s="88">
         <v>4</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86">
+      <c r="J15" s="123"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88">
         <v>5</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="94" t="s">
+      <c r="J16" s="123"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A17" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="86">
+      <c r="B17" s="98"/>
+      <c r="C17" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="88">
         <v>4</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A19" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="86">
+      <c r="B19" s="98"/>
+      <c r="C19" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A20" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="88">
         <v>3</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86">
+      <c r="I20" s="89"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88">
         <v>2</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A17" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="86">
+      <c r="J21" s="123"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="88">
         <v>1</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A19" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="86">
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="88">
         <v>1</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A20" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="86">
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="88">
         <v>1</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A21" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="86">
+      <c r="J25" s="123"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="88">
         <v>2</v>
       </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-    </row>
-    <row r="22" spans="1:19" ht="32" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="123"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="123"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="123"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A29" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-    </row>
-    <row r="23" spans="1:19" ht="44" customHeight="1">
-      <c r="A23" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A24" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86">
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88">
         <v>1</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97">
-        <f>SUM(E4:E24)+0.5</f>
+      <c r="I29" s="89"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A30" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A32" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="92"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A33" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A34" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103">
+        <f>SUM(E4:E33)+0.5</f>
         <v>7.5</v>
       </c>
-      <c r="F25" s="97">
+      <c r="F34" s="103">
         <v>4</v>
       </c>
-      <c r="G25" s="97">
+      <c r="G34" s="103">
         <v>6</v>
       </c>
-      <c r="H25" s="97">
-        <f>SUM(H6:H24)+0.16*2</f>
+      <c r="H34" s="103">
+        <f>SUM(H6:H33)+0.16*2</f>
         <v>7.32</v>
       </c>
-      <c r="I25" s="97">
-        <f>SUM(I6:I24)+0.16*2+0.5</f>
+      <c r="I34" s="103">
+        <f>SUM(I6:I33)+0.16*2+0.5</f>
         <v>17.82</v>
       </c>
-      <c r="J25" s="111"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J26" s="111"/>
-    </row>
-    <row r="27" spans="1:19" ht="35" customHeight="1">
-      <c r="J27" s="111"/>
-    </row>
-    <row r="28" spans="1:19" ht="42" customHeight="1">
-      <c r="J28" s="111"/>
-    </row>
-    <row r="29" spans="1:19" ht="21" customHeight="1"/>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -9804,9 +10076,7 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9822,562 +10092,739 @@
     <col min="14" max="26" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" customHeight="1">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A1" s="152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="154"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="90"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="98">
+        <v>3</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="90"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A4" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="108">
+        <v>4</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A5" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111">
+        <v>2</v>
+      </c>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A6" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="112">
+        <v>1</v>
+      </c>
+      <c r="H6" s="110"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A7" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="112">
+        <v>2</v>
+      </c>
+      <c r="H7" s="112">
+        <v>1</v>
+      </c>
+      <c r="I7" s="110"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A8" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="112">
+        <v>3</v>
+      </c>
+      <c r="J8" s="157"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A9" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="98">
+        <v>2</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A10" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A11" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="113">
+        <v>4</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="115"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A12" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A13" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A14" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A15" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A16" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="110"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A17" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="113">
+        <v>4</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A19" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="92"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+    </row>
+    <row r="20" spans="1:19" ht="42" customHeight="1">
+      <c r="A20" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="98">
+        <v>4</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+    </row>
+    <row r="21" spans="1:19" ht="39.75" customHeight="1">
+      <c r="A21" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="92"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="112">
+        <v>6</v>
+      </c>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+    </row>
+    <row r="22" spans="1:19" ht="27" customHeight="1">
+      <c r="A22" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="120"/>
+      <c r="C22" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="122"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="112">
+        <v>3</v>
+      </c>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="112">
+        <v>3</v>
+      </c>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="142"/>
-    </row>
-    <row r="2" spans="1:19" ht="26" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-    </row>
-    <row r="3" spans="1:19" ht="50" customHeight="1">
-      <c r="A3" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="95">
-        <v>3</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="144" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-    </row>
-    <row r="4" spans="1:19" ht="25" customHeight="1">
-      <c r="A4" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="102">
-        <v>4</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-    </row>
-    <row r="5" spans="1:19" ht="29" customHeight="1">
-      <c r="A5" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105">
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103">
+        <f>SUM(E5:E25)+0.16</f>
+        <v>0.16</v>
+      </c>
+      <c r="F26" s="103">
+        <f>SUM(F3:F25)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-    </row>
-    <row r="6" spans="1:19" ht="36" customHeight="1">
-      <c r="A6" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="106">
-        <v>1</v>
-      </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-    </row>
-    <row r="7" spans="1:19" ht="32" customHeight="1">
-      <c r="A7" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="106">
-        <v>2</v>
-      </c>
-      <c r="H7" s="106">
-        <v>1</v>
-      </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-    </row>
-    <row r="8" spans="1:19" ht="41" customHeight="1">
-      <c r="A8" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="106">
-        <v>3</v>
-      </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-    </row>
-    <row r="9" spans="1:19" ht="49" customHeight="1">
-      <c r="A9" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-    </row>
-    <row r="10" spans="1:19" ht="42" customHeight="1">
-      <c r="A10" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="106">
-        <v>3</v>
-      </c>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-    </row>
-    <row r="11" spans="1:19" ht="43" customHeight="1">
-      <c r="A11" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="106">
-        <v>3</v>
-      </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-    </row>
-    <row r="12" spans="1:19" ht="46" customHeight="1">
-      <c r="A12" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-    </row>
-    <row r="13" spans="1:19" ht="34" customHeight="1">
-      <c r="A13" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97">
-        <f>SUM(E5:E12)+0.16</f>
-        <v>0.16</v>
-      </c>
-      <c r="F13" s="97">
-        <f>SUM(F3:F12)</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="97">
-        <f>SUM(G3:G12)+0.16*14</f>
+      <c r="G26" s="103">
+        <f>SUM(G3:G25)+0.16*14</f>
         <v>8.24</v>
       </c>
-      <c r="H13" s="97">
-        <f>SUM(H3:H12)+0.16</f>
+      <c r="H26" s="103">
+        <f>SUM(H3:H25)+0.16</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="I13" s="97">
-        <f>SUM(I3:I12) + 0.5 + 0.16</f>
-        <v>6.66</v>
-      </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J14" s="145"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J15" s="145"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J16" s="145"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-    </row>
-    <row r="17" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J17" s="146"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-    </row>
-    <row r="18" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J18" s="83"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-    </row>
-    <row r="19" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J19" s="83"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-    </row>
-    <row r="20" spans="10:19" ht="42" customHeight="1">
-      <c r="J20" s="83"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-    </row>
-    <row r="21" spans="10:19" ht="39.75" customHeight="1">
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-    </row>
-    <row r="22" spans="10:19" ht="27" customHeight="1">
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-    </row>
-    <row r="23" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-    </row>
-    <row r="24" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-    </row>
-    <row r="25" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-    </row>
-    <row r="26" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-    </row>
-    <row r="27" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-    </row>
-    <row r="28" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-    </row>
-    <row r="29" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="30" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="31" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="32" spans="10:19" ht="15.75" customHeight="1"/>
+      <c r="I26" s="103">
+        <f>SUM(I3:I25) + 0.5 + 0.16</f>
+        <v>12.66</v>
+      </c>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -11361,11 +11808,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S1003"/>
+  <dimension ref="A1:S1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11376,742 +11821,965 @@
     <col min="5" max="26" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31" customHeight="1">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A1" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="154"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="160"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A3" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="98">
+        <v>2</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="161" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="162"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="97">
+        <v>3</v>
+      </c>
+      <c r="J4" s="163"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="112">
+        <v>1</v>
+      </c>
+      <c r="G5" s="112">
+        <v>1</v>
+      </c>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97">
+        <v>3</v>
+      </c>
+      <c r="J6" s="163"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="97">
+        <v>1</v>
+      </c>
+      <c r="J7" s="163"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="97">
+        <v>4</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="97">
+        <v>1</v>
+      </c>
+      <c r="J10" s="163"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A11" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="97">
+        <v>1</v>
+      </c>
+      <c r="J11" s="163"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="97">
+        <v>1</v>
+      </c>
+      <c r="J12" s="163"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="106">
+        <v>2</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="122"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A14" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="112">
+        <v>3</v>
+      </c>
+      <c r="F14" s="112">
+        <v>2</v>
+      </c>
+      <c r="G14" s="112">
+        <v>4</v>
+      </c>
+      <c r="H14" s="97">
+        <v>5</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A16" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="106">
+        <v>2</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="163"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="163"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A19" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="106">
+        <v>3</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A20" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="108">
+        <v>2</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="92"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="112">
+        <v>1</v>
+      </c>
+      <c r="F21" s="111">
+        <v>2</v>
+      </c>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="110"/>
+      <c r="F22" s="112">
+        <v>1</v>
+      </c>
+      <c r="G22" s="112">
+        <v>1</v>
+      </c>
+      <c r="H22" s="110"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="92"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112">
+        <v>3</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="142"/>
-    </row>
-    <row r="2" spans="1:19" ht="31" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="147" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="148"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="95">
-        <v>2</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="149" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-    </row>
-    <row r="4" spans="1:19" ht="24" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="94">
+      <c r="B24" s="92"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="110"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="120"/>
+      <c r="C25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="122"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="112">
         <v>3</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="106">
-        <v>1</v>
-      </c>
-      <c r="G5" s="106">
-        <v>1</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94">
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="112">
         <v>3</v>
       </c>
-      <c r="J6" s="151"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="94">
-        <v>1</v>
-      </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-    </row>
-    <row r="8" spans="1:19" ht="31" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="94">
-        <v>4</v>
-      </c>
-      <c r="J9" s="151"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="94">
-        <v>1</v>
-      </c>
-      <c r="J10" s="151"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="94">
-        <v>1</v>
-      </c>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="94">
-        <v>1</v>
-      </c>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-    </row>
-    <row r="13" spans="1:19" ht="37" customHeight="1">
-      <c r="A13" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="100">
-        <v>3</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-    </row>
-    <row r="14" spans="1:19" ht="26" customHeight="1">
-      <c r="A14" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="102">
-        <v>2</v>
-      </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-    </row>
-    <row r="15" spans="1:19" ht="28" customHeight="1">
-      <c r="A15" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="106">
-        <v>1</v>
-      </c>
-      <c r="F15" s="105">
-        <v>2</v>
-      </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="106">
-        <v>1</v>
-      </c>
-      <c r="G16" s="106">
-        <v>1</v>
-      </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-    </row>
-    <row r="17" spans="1:19" ht="35" customHeight="1">
-      <c r="A17" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106">
-        <v>3</v>
-      </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-    </row>
-    <row r="18" spans="1:19" ht="29" customHeight="1">
-      <c r="A18" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-    </row>
-    <row r="19" spans="1:19" ht="38" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97">
-        <f>SUM(E4:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="97">
-        <f>SUM(F3:F12)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="97">
-        <f>SUM(G3:G12)</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="97">
-        <f>SUM(H3:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="97">
-        <f>SUM(I3:I12)</f>
+      <c r="J27" s="163"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A29" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103">
+        <f>SUM(E4:E18)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="103">
+        <f t="shared" ref="F29:I29" si="0">SUM(F3:F18)</f>
+        <v>7</v>
+      </c>
+      <c r="G29" s="103">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H29" s="103">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I29" s="103">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-    </row>
-    <row r="20" spans="1:19" ht="27" customHeight="1">
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-    </row>
-    <row r="21" spans="1:19" ht="37" customHeight="1">
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-    </row>
-    <row r="22" spans="1:19" ht="36" customHeight="1">
-      <c r="J22" s="151"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1">
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-    </row>
-    <row r="24" spans="1:19" ht="33" customHeight="1">
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J26" s="151"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J27" s="151"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J28" s="151"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
     </row>
     <row r="33" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
     </row>
     <row r="34" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
     </row>
     <row r="35" spans="10:19" ht="15.75" customHeight="1">
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-    </row>
-    <row r="36" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="37" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="38" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="39" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="40" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="41" spans="10:19" ht="15.75" customHeight="1"/>
-    <row r="42" spans="10:19" ht="15.75" customHeight="1"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+    </row>
+    <row r="36" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+    </row>
+    <row r="37" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+    </row>
+    <row r="38" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+    </row>
+    <row r="39" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+    </row>
+    <row r="40" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+    </row>
+    <row r="41" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+    </row>
+    <row r="42" spans="10:19" ht="15.75" customHeight="1">
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+    </row>
     <row r="43" spans="10:19" ht="15.75" customHeight="1"/>
     <row r="44" spans="10:19" ht="15.75" customHeight="1"/>
     <row r="45" spans="10:19" ht="15.75" customHeight="1"/>
@@ -13073,6 +13741,13 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:S1"/>

--- a/scrum_temp team 7.xlsx
+++ b/scrum_temp team 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\Team7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533654D-18B0-4227-B74D-F80069488144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FED88-5759-4B2C-A779-196A28B4DDC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="147">
   <si>
     <t>Responsible</t>
   </si>
@@ -195,12 +195,6 @@
     <t>As an admin, I am able to add, read, edit and remove election machine questions.</t>
   </si>
   <si>
-    <t>As a candidate I can modify my answers</t>
-  </si>
-  <si>
-    <t>As a candidate I can answer the questions</t>
-  </si>
-  <si>
     <t>SUMMARY</t>
   </si>
   <si>
@@ -295,15 +289,6 @@
   </si>
   <si>
     <t>Create javadoc</t>
-  </si>
-  <si>
-    <t>Coding UI</t>
-  </si>
-  <si>
-    <t>Update candidates answers to database</t>
-  </si>
-  <si>
-    <t>Add candidates answers to database</t>
   </si>
   <si>
     <t xml:space="preserve">Spring Planning </t>
@@ -1657,6 +1642,10 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1676,12 +1665,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,6 +1709,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1722,38 +1739,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4577,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4589,8 +4574,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="100"/>
-      <c r="B1" s="100"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4613,7 +4598,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4627,32 +4612,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -4672,7 +4657,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4686,32 +4671,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -4728,7 +4713,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4742,16 +4727,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="102"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="102"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
+      <c r="A18" s="102"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
+      <c r="A19" s="102"/>
     </row>
     <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4795,17 +4780,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
@@ -4849,7 +4834,7 @@
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
@@ -4877,7 +4862,7 @@
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -4960,251 +4945,251 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="143" t="s">
+      <c r="C2" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111"/>
+      <c r="B3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C3" s="114"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112"/>
+      <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="138"/>
-      <c r="B3" s="22" t="s">
+      <c r="C4" s="115"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="111"/>
+      <c r="B6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="114"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="115"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="114"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="112"/>
+      <c r="B10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="115"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="111"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139"/>
-      <c r="B4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="141"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="111"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139"/>
-      <c r="B7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="141"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="B11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="117"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="118"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="111"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139"/>
-      <c r="B10" s="27" t="s">
+      <c r="C14" s="119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="114"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="141"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="145" t="s">
+      <c r="C16" s="114"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="114"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="114"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="114"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="112"/>
+      <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="115"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="121"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
+      <c r="B23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="111"/>
+      <c r="B25" s="29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="135"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139"/>
-      <c r="B13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="136"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="138"/>
-      <c r="B15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="111"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="138"/>
-      <c r="B16" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="111"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138"/>
-      <c r="B17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="111"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
-      <c r="B18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="111"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="111"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="141"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="140"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="138"/>
-      <c r="B22" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138"/>
-      <c r="B23" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="29" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="29" t="s">
+      <c r="C26" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
-      <c r="B26" s="29" t="s">
+      <c r="C27" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="29" t="s">
+      <c r="C28" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="29" t="s">
+      <c r="C29" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
+      <c r="B30" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138"/>
-      <c r="B29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="139"/>
-      <c r="B30" s="29" t="s">
-        <v>76</v>
-      </c>
       <c r="C30" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5250,47 +5235,47 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5303,63 +5288,63 @@
       <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="113"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="124"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="A7" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5374,33 +5359,33 @@
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
+      <c r="A12" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="41"/>
       <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="113"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="41"/>
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="113"/>
+      <c r="A14" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="39"/>
       <c r="G14" s="40"/>
     </row>
@@ -5415,38 +5400,38 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="40"/>
@@ -5462,32 +5447,32 @@
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="A19" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="41"/>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="113"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="113"/>
+      <c r="A21" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6504,7 +6489,7 @@
   <dimension ref="A1:G996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6518,182 +6503,182 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="53"/>
       <c r="E3" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="59"/>
       <c r="E4" s="54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="59"/>
       <c r="E5" s="54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="59"/>
       <c r="E6" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="59"/>
       <c r="E7" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="134" t="s">
-        <v>52</v>
+        <v>105</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="60"/>
       <c r="E8" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="59"/>
     </row>
@@ -6702,25 +6687,25 @@
         <v>42</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="59"/>
     </row>
@@ -7750,58 +7735,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122"/>
+      <c r="A1" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="G2" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="J2" s="72" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>125</v>
       </c>
       <c r="L2" s="73"/>
       <c r="M2" s="73"/>
@@ -7818,22 +7803,22 @@
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
       <c r="E3" s="74" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G3" s="74" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I3" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="123" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="J3" s="135" t="s">
+        <v>122</v>
       </c>
       <c r="L3" s="73"/>
       <c r="M3" s="73"/>
@@ -7846,14 +7831,14 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="75" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="76">
         <v>2</v>
@@ -7862,7 +7847,7 @@
       <c r="G4" s="77"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="100"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="78"/>
       <c r="L4" s="79"/>
       <c r="M4" s="79"/>
@@ -7882,14 +7867,14 @@
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="76">
         <v>2</v>
@@ -7900,7 +7885,7 @@
       <c r="G5" s="77"/>
       <c r="H5" s="77"/>
       <c r="I5" s="77"/>
-      <c r="J5" s="100"/>
+      <c r="J5" s="102"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -7916,7 +7901,7 @@
       </c>
       <c r="B6" s="85"/>
       <c r="C6" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
@@ -7924,7 +7909,7 @@
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
-      <c r="J6" s="100"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
@@ -7937,12 +7922,12 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="76">
         <v>3</v>
@@ -7951,7 +7936,7 @@
       <c r="G7" s="77"/>
       <c r="H7" s="77"/>
       <c r="I7" s="77"/>
-      <c r="J7" s="100"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
@@ -7964,12 +7949,12 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="76">
@@ -7978,7 +7963,7 @@
       <c r="G8" s="77"/>
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
-      <c r="J8" s="100"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
@@ -7991,12 +7976,12 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77"/>
@@ -8009,7 +7994,7 @@
       <c r="I9" s="76">
         <v>5</v>
       </c>
-      <c r="J9" s="100"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
       <c r="M9" s="73"/>
@@ -8022,12 +8007,12 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
@@ -8040,7 +8025,7 @@
       <c r="I10" s="76">
         <v>4</v>
       </c>
-      <c r="J10" s="100"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="73"/>
       <c r="L10" s="73"/>
       <c r="M10" s="73"/>
@@ -8053,12 +8038,12 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77"/>
@@ -8067,7 +8052,7 @@
       <c r="I11" s="76">
         <v>5</v>
       </c>
-      <c r="J11" s="100"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="73"/>
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
@@ -8080,11 +8065,11 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="74"/>
@@ -8092,7 +8077,7 @@
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
-      <c r="J12" s="100"/>
+      <c r="J12" s="102"/>
       <c r="K12" s="73"/>
       <c r="L12" s="73"/>
       <c r="M12" s="73"/>
@@ -8105,12 +8090,12 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="76">
@@ -8119,7 +8104,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="100"/>
+      <c r="J13" s="102"/>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
       <c r="M13" s="73"/>
@@ -8136,7 +8121,7 @@
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
@@ -8144,7 +8129,7 @@
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
-      <c r="J14" s="100"/>
+      <c r="J14" s="102"/>
       <c r="K14" s="73"/>
       <c r="L14" s="73"/>
       <c r="M14" s="73"/>
@@ -8157,12 +8142,12 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
@@ -8171,7 +8156,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="77"/>
-      <c r="J15" s="100"/>
+      <c r="J15" s="102"/>
       <c r="K15" s="73"/>
       <c r="L15" s="73"/>
       <c r="M15" s="73"/>
@@ -8184,12 +8169,12 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
@@ -8198,7 +8183,7 @@
       <c r="I16" s="76">
         <v>2</v>
       </c>
-      <c r="J16" s="100"/>
+      <c r="J16" s="102"/>
       <c r="K16" s="73"/>
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
@@ -8211,11 +8196,11 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -8223,7 +8208,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
-      <c r="J17" s="100"/>
+      <c r="J17" s="102"/>
       <c r="K17" s="73"/>
       <c r="L17" s="73"/>
       <c r="M17" s="73"/>
@@ -8236,12 +8221,12 @@
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="77"/>
       <c r="F18" s="77"/>
@@ -8250,7 +8235,7 @@
       </c>
       <c r="H18" s="77"/>
       <c r="I18" s="77"/>
-      <c r="J18" s="100"/>
+      <c r="J18" s="102"/>
       <c r="K18" s="73"/>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
@@ -8263,11 +8248,11 @@
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
@@ -8276,7 +8261,7 @@
       </c>
       <c r="H19" s="77"/>
       <c r="I19" s="77"/>
-      <c r="J19" s="100"/>
+      <c r="J19" s="102"/>
       <c r="K19" s="73"/>
       <c r="L19" s="73"/>
       <c r="M19" s="73"/>
@@ -8289,12 +8274,12 @@
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="77"/>
@@ -8303,7 +8288,7 @@
       <c r="I20" s="76">
         <v>1</v>
       </c>
-      <c r="J20" s="100"/>
+      <c r="J20" s="102"/>
       <c r="K20" s="73"/>
       <c r="L20" s="73"/>
       <c r="M20" s="73"/>
@@ -8316,12 +8301,12 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="77"/>
       <c r="F21" s="77"/>
@@ -8330,48 +8315,48 @@
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="77"/>
-      <c r="J21" s="100"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="77"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
-      <c r="J22" s="100"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="80"/>
       <c r="D23" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="77"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
-      <c r="J23" s="100"/>
+      <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
       <c r="D24" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="77"/>
       <c r="F24" s="77"/>
@@ -8383,7 +8368,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="87" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
@@ -9391,7 +9376,7 @@
   <dimension ref="A1:S983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9409,58 +9394,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122"/>
+      <c r="A1" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="G2" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="J2" s="88" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="88" t="s">
-        <v>125</v>
       </c>
       <c r="K2" s="78"/>
       <c r="L2" s="89"/>
@@ -9474,13 +9459,13 @@
     </row>
     <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B3" s="85">
         <v>3</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
@@ -9488,8 +9473,8 @@
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
-      <c r="J3" s="124" t="s">
-        <v>138</v>
+      <c r="J3" s="136" t="s">
+        <v>133</v>
       </c>
       <c r="K3" s="78"/>
       <c r="L3" s="91"/>
@@ -9503,12 +9488,12 @@
     </row>
     <row r="4" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="86"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="92">
         <v>4</v>
@@ -9517,7 +9502,7 @@
       <c r="G4" s="86"/>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
-      <c r="J4" s="125"/>
+      <c r="J4" s="137"/>
       <c r="K4" s="93"/>
       <c r="L4" s="91"/>
       <c r="M4" s="91"/>
@@ -9530,12 +9515,12 @@
     </row>
     <row r="5" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="84"/>
       <c r="D5" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95">
@@ -9544,7 +9529,7 @@
       <c r="G5" s="94"/>
       <c r="H5" s="94"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="125"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="93"/>
       <c r="L5" s="91"/>
       <c r="M5" s="91"/>
@@ -9557,12 +9542,12 @@
     </row>
     <row r="6" spans="1:19" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -9571,7 +9556,7 @@
       </c>
       <c r="H6" s="94"/>
       <c r="I6" s="96"/>
-      <c r="J6" s="125"/>
+      <c r="J6" s="137"/>
       <c r="K6" s="93"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
@@ -9584,13 +9569,13 @@
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" s="85">
         <v>4</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="74"/>
       <c r="E7" s="85"/>
@@ -9611,12 +9596,12 @@
     </row>
     <row r="8" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="94"/>
       <c r="F8" s="94"/>
@@ -9638,7 +9623,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
@@ -10685,10 +10670,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S1003"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10701,60 +10686,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122"/>
+      <c r="A1" s="132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="G2" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="J2" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="127"/>
+      <c r="K2" s="139"/>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
       <c r="O2" s="73"/>
@@ -10771,7 +10756,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
@@ -10779,10 +10764,10 @@
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
-      <c r="J3" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="129"/>
+      <c r="J3" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="141"/>
       <c r="L3" s="73"/>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
@@ -10794,12 +10779,12 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
       <c r="D4" s="84" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E4" s="94"/>
       <c r="F4" s="94"/>
@@ -10808,8 +10793,8 @@
       <c r="I4" s="84">
         <v>3</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
       <c r="L4" s="73"/>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
@@ -10821,12 +10806,12 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
       <c r="D5" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="96">
@@ -10837,8 +10822,8 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="143"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -10850,12 +10835,12 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
       <c r="D6" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -10864,8 +10849,8 @@
       <c r="I6" s="84">
         <v>3</v>
       </c>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="143"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
@@ -10877,12 +10862,12 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="94"/>
@@ -10891,8 +10876,8 @@
       <c r="I7" s="84">
         <v>1</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -10904,20 +10889,20 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="86"/>
       <c r="C8" s="80"/>
       <c r="D8" s="84" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E8" s="86"/>
       <c r="F8" s="86"/>
       <c r="G8" s="86"/>
       <c r="H8" s="75"/>
       <c r="I8" s="75"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -10929,12 +10914,12 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="94"/>
       <c r="F9" s="94"/>
@@ -10943,8 +10928,8 @@
       <c r="I9" s="84">
         <v>4</v>
       </c>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
       <c r="L9" s="73"/>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -10956,12 +10941,12 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="94"/>
       <c r="F10" s="94"/>
@@ -10970,8 +10955,8 @@
       <c r="I10" s="84">
         <v>1</v>
       </c>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="73"/>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -10983,12 +10968,12 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
@@ -10997,8 +10982,8 @@
       <c r="I11" s="84">
         <v>1</v>
       </c>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="143"/>
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
@@ -11010,12 +10995,12 @@
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="94"/>
       <c r="F12" s="94"/>
@@ -11024,8 +11009,8 @@
       <c r="I12" s="84">
         <v>1</v>
       </c>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
       <c r="L12" s="73"/>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
@@ -11037,22 +11022,22 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
       <c r="L13" s="73"/>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -11062,30 +11047,24 @@
       <c r="R13" s="73"/>
       <c r="S13" s="73"/>
     </row>
-    <row r="14" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="96">
-        <v>3</v>
-      </c>
-      <c r="F14" s="96">
+        <v>138</v>
+      </c>
+      <c r="E14" s="92">
         <v>2</v>
       </c>
-      <c r="G14" s="96">
-        <v>4</v>
-      </c>
-      <c r="H14" s="84">
-        <v>5</v>
-      </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
       <c r="L14" s="73"/>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -11096,21 +11075,25 @@
       <c r="S14" s="73"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>78</v>
+      <c r="A15" s="80" t="s">
+        <v>134</v>
       </c>
       <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+        <v>138</v>
+      </c>
+      <c r="E15" s="96">
+        <v>1</v>
+      </c>
+      <c r="F15" s="95">
+        <v>2</v>
+      </c>
       <c r="G15" s="94"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
       <c r="L15" s="73"/>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
@@ -11121,23 +11104,34 @@
       <c r="S15" s="73"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="90">
-        <v>2</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
+      <c r="A16" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87">
+        <f>SUM(E4:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="87">
+        <f>SUM(F3:F12)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="87">
+        <f>SUM(G3:G12)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="87">
+        <f>SUM(H3:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="87">
+        <f>SUM(I3:I12)</f>
+        <v>14</v>
+      </c>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145"/>
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
       <c r="N16" s="73"/>
@@ -11147,28 +11141,9 @@
       <c r="R16" s="73"/>
       <c r="S16" s="73"/>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
+    <row r="17" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="73"/>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
@@ -11178,16 +11153,9 @@
       <c r="R17" s="73"/>
       <c r="S17" s="73"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
+    <row r="18" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
       <c r="N18" s="73"/>
@@ -11197,24 +11165,9 @@
       <c r="R18" s="73"/>
       <c r="S18" s="73"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="90">
-        <v>3</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
+    <row r="19" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
       <c r="L19" s="73"/>
       <c r="M19" s="73"/>
       <c r="N19" s="73"/>
@@ -11224,24 +11177,9 @@
       <c r="R19" s="73"/>
       <c r="S19" s="73"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="92">
-        <v>2</v>
-      </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
+    <row r="20" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="73"/>
       <c r="M20" s="73"/>
       <c r="N20" s="73"/>
@@ -11251,26 +11189,9 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="96">
-        <v>1</v>
-      </c>
-      <c r="F21" s="95">
-        <v>2</v>
-      </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
+    <row r="21" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
       <c r="L21" s="73"/>
       <c r="M21" s="73"/>
       <c r="N21" s="73"/>
@@ -11280,35 +11201,9 @@
       <c r="R21" s="73"/>
       <c r="S21" s="73"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87">
-        <f>SUM(E4:E18)</f>
-        <v>6</v>
-      </c>
-      <c r="F22" s="87">
-        <f t="shared" ref="F22:I22" si="0">SUM(F3:F18)</f>
-        <v>7</v>
-      </c>
-      <c r="G22" s="87">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="87">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I22" s="87">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
+    <row r="22" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="73"/>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -11318,7 +11213,7 @@
       <c r="R22" s="73"/>
       <c r="S22" s="73"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
       <c r="L23" s="73"/>
@@ -11330,7 +11225,7 @@
       <c r="R23" s="73"/>
       <c r="S23" s="73"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
       <c r="L24" s="73"/>
@@ -11342,7 +11237,7 @@
       <c r="R24" s="73"/>
       <c r="S24" s="73"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J25" s="73"/>
       <c r="K25" s="73"/>
       <c r="L25" s="73"/>
@@ -11354,7 +11249,7 @@
       <c r="R25" s="73"/>
       <c r="S25" s="73"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J26" s="73"/>
       <c r="K26" s="73"/>
       <c r="L26" s="73"/>
@@ -11366,7 +11261,7 @@
       <c r="R26" s="73"/>
       <c r="S26" s="73"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J27" s="73"/>
       <c r="K27" s="73"/>
       <c r="L27" s="73"/>
@@ -11378,7 +11273,7 @@
       <c r="R27" s="73"/>
       <c r="S27" s="73"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J28" s="73"/>
       <c r="K28" s="73"/>
       <c r="L28" s="73"/>
@@ -11390,7 +11285,7 @@
       <c r="R28" s="73"/>
       <c r="S28" s="73"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J29" s="73"/>
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
@@ -11402,91 +11297,25 @@
       <c r="R29" s="73"/>
       <c r="S29" s="73"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-    </row>
-    <row r="33" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-    </row>
-    <row r="34" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-    </row>
-    <row r="35" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-    </row>
-    <row r="36" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12436,17 +12265,11 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K22"/>
+    <mergeCell ref="J3:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
